--- a/atomica/library/udt_databook.xlsx
+++ b/atomica/library/udt_databook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAB3B-BB6C-489D-BE24-0ADE8731E3D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FDC6CC-6F2B-4FE8-AB42-678217BCBD0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,13 @@
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -745,7 +752,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -915,7 +922,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
